--- a/data/output/reporte_Excel para analisar datos.xlsx
+++ b/data/output/reporte_Excel para analisar datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jllue\Documents\Data Analisys\data\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC0D464-1C85-416F-BC75-BD2EA158E813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDE9B10-047E-4C9F-84F5-BC09FE7BAB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen General" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>REPORTE DE VENTAS - MECANICA SAN MIGUEL S.A.</t>
   </si>
   <si>
-    <t>Generado: 2025-10-23 15:13</t>
+    <t>Generado: 2025-10-23 17:04</t>
   </si>
   <si>
     <t>INDICADORES PRINCIPALES</t>
@@ -5501,19 +5501,19 @@
     <t>🎯 MATRIZ DE DECISIÓN - ÍNDICE GLOBAL DE PRIORIZACIÓN</t>
   </si>
   <si>
-    <t>Índice Global = 60% Eficiencia Fundición (S/ por Kg) + 40% Eficiencia Mano de Obra (menos piezas)</t>
-  </si>
-  <si>
-    <t>💡 CÓMO USAR: Prioriza productos con Índice Global alto (verde). Estos maximizan S/ por kg fundido y minimizan mano de obra.</t>
+    <t>Índice Global = 60% Eficiencia Fundición ($ por Kg) + 40% Eficiencia Mano de Obra (menos piezas)</t>
+  </si>
+  <si>
+    <t>💡 CÓMO USAR: Prioriza productos con Índice Global alto (verde). Estos maximizan $ por kg fundido y minimizan mano de obra.</t>
   </si>
   <si>
     <t>Peso Unitario (kg)</t>
   </si>
   <si>
-    <t>S/ por Unidad</t>
-  </si>
-  <si>
-    <t>S/ por Kg</t>
+    <t>$ por Unidad</t>
+  </si>
+  <si>
+    <t>$ por Kg</t>
   </si>
   <si>
     <t>Índice Global</t>
@@ -5528,19 +5528,19 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>✅ ACEPTAR: Alto valor por kg (S/24.24/kg) y eficiente en mano de obra.</t>
-  </si>
-  <si>
-    <t>✅ ACEPTAR: Alto valor por kg (S/23.50/kg) y eficiente en mano de obra.</t>
-  </si>
-  <si>
-    <t>✅ ACEPTAR: Alto valor por kg (S/21.50/kg) y eficiente en mano de obra.</t>
-  </si>
-  <si>
-    <t>✅ ACEPTAR: Alto valor por kg (S/18.00/kg) y eficiente en mano de obra.</t>
-  </si>
-  <si>
-    <t>✅ ACEPTAR: Alto valor por kg (S/15.00/kg) y eficiente en mano de obra.</t>
+    <t>✅ ACEPTAR: Alto valor por kg ($24.24/kg) y eficiente en mano de obra.</t>
+  </si>
+  <si>
+    <t>✅ ACEPTAR: Alto valor por kg ($23.50/kg) y eficiente en mano de obra.</t>
+  </si>
+  <si>
+    <t>✅ ACEPTAR: Alto valor por kg ($21.50/kg) y eficiente en mano de obra.</t>
+  </si>
+  <si>
+    <t>✅ ACEPTAR: Alto valor por kg ($18.00/kg) y eficiente en mano de obra.</t>
+  </si>
+  <si>
+    <t>✅ ACEPTAR: Alto valor por kg ($15.00/kg) y eficiente en mano de obra.</t>
   </si>
   <si>
     <t>Media</t>
@@ -5552,34 +5552,34 @@
     <t>Baja</t>
   </si>
   <si>
-    <t>❌ RECHAZAR: Baja rentabilidad (S/0.00/kg) o requiere mucha mano de obra (1 piezas).</t>
-  </si>
-  <si>
-    <t>❌ RECHAZAR: Baja rentabilidad (S/3.39/kg) o requiere mucha mano de obra (62 piezas).</t>
-  </si>
-  <si>
-    <t>❌ RECHAZAR: Baja rentabilidad (S/0.00/kg) o requiere mucha mano de obra (8 piezas).</t>
-  </si>
-  <si>
-    <t>❌ RECHAZAR: Baja rentabilidad (S/4.90/kg) o requiere mucha mano de obra (96 piezas).</t>
-  </si>
-  <si>
-    <t>❌ RECHAZAR: Baja rentabilidad (S/4.10/kg) o requiere mucha mano de obra (96 piezas).</t>
-  </si>
-  <si>
-    <t>❌ RECHAZAR: Baja rentabilidad (S/4.90/kg) o requiere mucha mano de obra (144 piezas).</t>
-  </si>
-  <si>
-    <t>❌ RECHAZAR: Baja rentabilidad (S/4.10/kg) o requiere mucha mano de obra (144 piezas).</t>
-  </si>
-  <si>
-    <t>❌ RECHAZAR: Baja rentabilidad (S/3.60/kg) o requiere mucha mano de obra (240 piezas).</t>
-  </si>
-  <si>
-    <t>❌ RECHAZAR: Baja rentabilidad (S/3.78/kg) o requiere mucha mano de obra (258 piezas).</t>
-  </si>
-  <si>
-    <t>❌ RECHAZAR: Baja rentabilidad (S/3.50/kg) o requiere mucha mano de obra (288 piezas).</t>
+    <t>❌ RECHAZAR: Baja rentabilidad ($0.00/kg) o requiere mucha mano de obra (1 piezas).</t>
+  </si>
+  <si>
+    <t>❌ RECHAZAR: Baja rentabilidad ($3.39/kg) o requiere mucha mano de obra (62 piezas).</t>
+  </si>
+  <si>
+    <t>❌ RECHAZAR: Baja rentabilidad ($0.00/kg) o requiere mucha mano de obra (8 piezas).</t>
+  </si>
+  <si>
+    <t>❌ RECHAZAR: Baja rentabilidad ($4.90/kg) o requiere mucha mano de obra (96 piezas).</t>
+  </si>
+  <si>
+    <t>❌ RECHAZAR: Baja rentabilidad ($4.10/kg) o requiere mucha mano de obra (96 piezas).</t>
+  </si>
+  <si>
+    <t>❌ RECHAZAR: Baja rentabilidad ($4.90/kg) o requiere mucha mano de obra (144 piezas).</t>
+  </si>
+  <si>
+    <t>❌ RECHAZAR: Baja rentabilidad ($4.10/kg) o requiere mucha mano de obra (144 piezas).</t>
+  </si>
+  <si>
+    <t>❌ RECHAZAR: Baja rentabilidad ($3.60/kg) o requiere mucha mano de obra (240 piezas).</t>
+  </si>
+  <si>
+    <t>❌ RECHAZAR: Baja rentabilidad ($3.78/kg) o requiere mucha mano de obra (258 piezas).</t>
+  </si>
+  <si>
+    <t>❌ RECHAZAR: Baja rentabilidad ($3.50/kg) o requiere mucha mano de obra (288 piezas).</t>
   </si>
   <si>
     <t>📈 SEGMENTACIÓN BCG - ESTRATEGIA POR CUADRANTE</t>
@@ -5648,7 +5648,7 @@
     <t>Cantidad Acumulada</t>
   </si>
   <si>
-    <t>💰 PARETO POR FACTURACIÓN - Ingresos (S/)</t>
+    <t>💰 PARETO POR FACTURACIÓN - Ingresos ($)</t>
   </si>
   <si>
     <t>Identifica qué productos generan el 80% de tus ingresos</t>
@@ -5668,7 +5668,7 @@
 CADA KG A $ 3.5" tiene más piezas (288 unidades).</t>
   </si>
   <si>
-    <t>Facturación Total (S/)</t>
+    <t>Facturación Total ($)</t>
   </si>
 </sst>
 </file>
@@ -5779,7 +5779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5802,29 +5802,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5844,16 +5826,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6078,7 +6054,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3918-41A2-A72A-B41A59816255}"/>
+              <c16:uniqueId val="{00000000-E295-4BE0-9E5C-EC591169966D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6272,7 +6248,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3918-41A2-A72A-B41A59816255}"/>
+              <c16:uniqueId val="{00000001-E295-4BE0-9E5C-EC591169966D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6343,7 +6319,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Facturación (S/)</a:t>
+                  <a:t>Facturación ($)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6443,61 +6419,20 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Diagrama de Pareto - Peso (Top 20 Productos)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6510,31 +6445,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'3. Pareto por Peso'!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Peso Total (kg)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Peso Total (kg)</c:v>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'3. Pareto por Peso'!$B$7:$B$36</c:f>
+              <c:f>'3. Pareto por Peso'!$B$7:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>[42542-222] CONEXION MSM - 149403A - FE NOD-A536 GR.65-45-12
 CADA KG A $ 3.5</c:v>
@@ -6616,58 +6534,16 @@
                   <c:v>POLEA MSM - 90288VN - FE GRIS-A48 CL30
 GRANO FINO
 CADA KG A $ 2.80</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>POLEA MSM-106206 - FE NOD-A536 GR.65-45-12
-DUREZA 220-280 BHN
-GRANO FINO
-CADA KG A $ 3.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>[42543-302] BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>[42543-302] BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.50</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>[42543-302] BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.60</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>POLEA MSM - 1137128VP - FE GRIS-A48 CL30
-CADA KG A $3.15</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>POLEA MSM - 67814EW CON AGUJERO CENTRAL Ø 7 1/2" - FE GRIS-A48 CL30 
-CADA KG A $ 3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>[42544-302] TAPA MSM - 149403 C - SAE 1045 / EMPLACADO
-CADA KG A $ 4.1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>[42544-302] TAPA MSM - 149403 C - SAE 1045
-CADA KG A $ 4.10</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>BRIDA MSM - 17430 + 1 C/A - SAE 1045
-CADA KG A $3.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3. Pareto por Peso'!$C$7:$C$36</c:f>
+              <c:f>'3. Pareto por Peso'!$C$7:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>7200</c:v>
                 </c:pt>
@@ -6727,43 +6603,13 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>724</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>717</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>714</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>672</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>672</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C67-4FEF-ABD8-C976B35446F2}"/>
+              <c16:uniqueId val="{00000000-F400-4C2E-B080-459BACBA7741}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6775,45 +6621,33 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="771003983"/>
-        <c:axId val="770992463"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="50100001"/>
+        <c:axId val="50100002"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'3. Pareto por Peso'!$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% Acumulado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>% Acumulado</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'3. Pareto por Peso'!$B$7:$B$36</c:f>
+              <c:f>'3. Pareto por Peso'!$B$7:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>[42542-222] CONEXION MSM - 149403A - FE NOD-A536 GR.65-45-12
 CADA KG A $ 3.5</c:v>
@@ -6895,58 +6729,16 @@
                   <c:v>POLEA MSM - 90288VN - FE GRIS-A48 CL30
 GRANO FINO
 CADA KG A $ 2.80</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>POLEA MSM-106206 - FE NOD-A536 GR.65-45-12
-DUREZA 220-280 BHN
-GRANO FINO
-CADA KG A $ 3.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>[42543-302] BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>[42543-302] BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.50</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>[42543-302] BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.60</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>POLEA MSM - 1137128VP - FE GRIS-A48 CL30
-CADA KG A $3.15</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>POLEA MSM - 67814EW CON AGUJERO CENTRAL Ø 7 1/2" - FE GRIS-A48 CL30 
-CADA KG A $ 3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>[42544-302] TAPA MSM - 149403 C - SAE 1045 / EMPLACADO
-CADA KG A $ 4.1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>[42544-302] TAPA MSM - 149403 C - SAE 1045
-CADA KG A $ 4.10</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>BRIDA MSM - 17430 + 1 C/A - SAE 1045
-CADA KG A $3.00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3. Pareto por Peso'!$G$7:$G$36</c:f>
+              <c:f>'3. Pareto por Peso'!$G$7:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>8.6999999999999994E-2</c:v>
                 </c:pt>
@@ -7006,44 +6798,13 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.44440000000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.4531</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.46179999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.47049999999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.47920000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.4879</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.49659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.50519999999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.51329999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.52139999999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.52950000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8C67-4FEF-ABD8-C976B35446F2}"/>
+              <c16:uniqueId val="{00000001-F400-4C2E-B080-459BACBA7741}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7055,56 +6816,40 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="770995343"/>
-        <c:axId val="771003503"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="50100003"/>
+        <c:axId val="50100004"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="771003983"/>
+        <c:axId val="50100001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Producto</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="770992463"/>
+        <c:crossAx val="50100002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7112,188 +6857,101 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="770992463"/>
+        <c:axId val="50100002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Peso Total (kg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="771003983"/>
+        <c:crossAx val="50100001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="771003503"/>
+        <c:axId val="50100004"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% Acumulado</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="770995343"/>
+        <c:crossAx val="50100003"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="770995343"/>
+        <c:axId val="50100003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="771003503"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="50100004"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -7319,61 +6977,20 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Diagrama de Pareto - Cantidad (Top 20 Productos)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7386,31 +7003,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'4. Pareto por Cantidad'!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cantidad Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Cantidad Total</c:v>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'4. Pareto por Cantidad'!$B$7:$B$36</c:f>
+              <c:f>'4. Pareto por Cantidad'!$B$7:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>[42542-222] CONEXION MSM - 149403A - FE NOD-A536 GR.65-45-12
 CADA KG A $ 3.5</c:v>
@@ -7487,55 +7087,16 @@
                 <c:pt idx="19">
                   <c:v>[42543-302] BASE MSM - 149403 B - SAE 1045
 CADA KG A $ 3.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>[43462-302] CUBO MSM - F - SAE 1045
-CADA KG A $5.00</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ANILLO MSM - 202419A - SAE 1045
-CADA KG A $ 3 </c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>[44175-303] EXPELLER MSM-1002 - SAE 1060
-+ 4 modelos</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>ESLABON MSM - 149343B - VCN-AISI 4340 + 2 MODELOS + 1 C/A
-CADA KG A $7.00</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ESLABON MSM - 149343A - VCN-AISI 4340 + 2 MODELOS
-CADA KG A $7.00</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>TAPA MSM - 45731T - SAE 1045</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>[43599-302] CUBO MSM - E - SAE 1045 + 2 MODELOS
-CADA KG A $5.00</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>[42655-302] ANILLO MSM - 202329B - SAE 1045
-CADA KG A $3.00</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>[40132-302] COLLARIN MSM-17503E - SAE 1045
-PRECIO POR KG: $6.00</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>IMPULSOR MSM - 154202 - FE NOD-A536 GR.65-45-12
-CADA KG A $ 3.50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4. Pareto por Cantidad'!$C$7:$C$36</c:f>
+              <c:f>'4. Pareto por Cantidad'!$C$7:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>288</c:v>
                 </c:pt>
@@ -7595,43 +7156,13 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ED2A-4793-80C6-1D28127692D3}"/>
+              <c16:uniqueId val="{00000000-912F-4ED3-A11C-BB3CE7D8E644}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7643,45 +7174,33 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="770971343"/>
-        <c:axId val="770974703"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="50110001"/>
+        <c:axId val="50110002"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'4. Pareto por Cantidad'!$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% Acumulado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>% Acumulado</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'4. Pareto por Cantidad'!$B$7:$B$36</c:f>
+              <c:f>'4. Pareto por Cantidad'!$B$7:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>[42542-222] CONEXION MSM - 149403A - FE NOD-A536 GR.65-45-12
 CADA KG A $ 3.5</c:v>
@@ -7758,55 +7277,16 @@
                 <c:pt idx="19">
                   <c:v>[42543-302] BASE MSM - 149403 B - SAE 1045
 CADA KG A $ 3.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>[43462-302] CUBO MSM - F - SAE 1045
-CADA KG A $5.00</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ANILLO MSM - 202419A - SAE 1045
-CADA KG A $ 3 </c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>[44175-303] EXPELLER MSM-1002 - SAE 1060
-+ 4 modelos</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>ESLABON MSM - 149343B - VCN-AISI 4340 + 2 MODELOS + 1 C/A
-CADA KG A $7.00</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ESLABON MSM - 149343A - VCN-AISI 4340 + 2 MODELOS
-CADA KG A $7.00</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>TAPA MSM - 45731T - SAE 1045</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>[43599-302] CUBO MSM - E - SAE 1045 + 2 MODELOS
-CADA KG A $5.00</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>[42655-302] ANILLO MSM - 202329B - SAE 1045
-CADA KG A $3.00</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>[40132-302] COLLARIN MSM-17503E - SAE 1045
-PRECIO POR KG: $6.00</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>IMPULSOR MSM - 154202 - FE NOD-A536 GR.65-45-12
-CADA KG A $ 3.50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4. Pareto por Cantidad'!$G$7:$G$36</c:f>
+              <c:f>'4. Pareto por Cantidad'!$G$7:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>7.7800000000000008E-2</c:v>
                 </c:pt>
@@ -7866,44 +7346,13 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.53649999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.54590000000000005</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.55459999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.56240000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.57750000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.58509999999999995</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.59209999999999996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.59889999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.60530000000000006</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.61130000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ED2A-4793-80C6-1D28127692D3}"/>
+              <c16:uniqueId val="{00000001-912F-4ED3-A11C-BB3CE7D8E644}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7915,56 +7364,40 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="770964143"/>
-        <c:axId val="770980463"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="50110003"/>
+        <c:axId val="50110004"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="770971343"/>
+        <c:axId val="50110001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Producto</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="770974703"/>
+        <c:crossAx val="50110002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7972,188 +7405,101 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="770974703"/>
+        <c:axId val="50110002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cantidad Total</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="770971343"/>
+        <c:crossAx val="50110001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="770980463"/>
+        <c:axId val="50110004"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% Acumulado</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="770964143"/>
+        <c:crossAx val="50110003"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="770964143"/>
+        <c:axId val="50110003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="770980463"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="50110004"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -8179,89 +7525,20 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Diagrama de Pareto - Facturación (Top 20 Productos)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8274,31 +7551,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'5. Pareto por Facturación'!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Facturación Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Facturación Total ($)</c:v>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'5. Pareto por Facturación'!$B$7:$B$36</c:f>
+              <c:f>'5. Pareto por Facturación'!$B$7:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>[42542-222] CONEXION MSM - 149403A - FE NOD-A536 GR.65-45-12
 CADA KG A $ 3.5</c:v>
@@ -8379,58 +7639,16 @@
                 <c:pt idx="19">
                   <c:v>[40253-302] MSM-J CUBO - 3731 - SAE 1045 + 2 MODELOS + 1 C/A
 CADA KG A $3.50</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>[42555-105] BOCINA MSM - 202410 - FE-BL-A532-IIB
-CADA KG A $ 5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>[42544-302] TAPA MSM - 149403 C - SAE 1045 / EMPLACADO
-CADA KG A $ 4.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>[42544-302] TAPA MSM - 149403 C - SAE 1045
-CADA KG A $ 4.10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>VOLANTE DE MSM - 17608A - SAE 1045
-CADA KG A $ 3.25 </c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>RUEDA SAN MIGUEL S/PLANO 149-338 - VCL-AISI 4140
-CADA KG A $ 3.60</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>[42543-302] BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.60</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>[42543-302] BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>POLEA MSM-106206 - FE NOD-A536 GR.65-45-12
-DUREZA 220-280 BHN
-GRANO FINO
-CADA KG A $ 3.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>[42543-302] BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.50</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5. Pareto por Facturación'!$C$7:$C$36</c:f>
+              <c:f>'5. Pareto por Facturación'!$C$7:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>\$\ #,##0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>25200</c:v>
                 </c:pt>
@@ -8490,43 +7708,13 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3150</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2990</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2755.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2755.2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2687.75</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2635.2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2592</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2592</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2534</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2520</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-06EA-4446-92C4-B48F3CDE2BAF}"/>
+              <c16:uniqueId val="{00000000-4F37-414A-8ADB-BF39D0075015}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8538,45 +7726,33 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="770988623"/>
-        <c:axId val="771002543"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="50120001"/>
+        <c:axId val="50120002"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'5. Pareto por Facturación'!$G$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% Acumulado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>% Acumulado</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'5. Pareto por Facturación'!$B$7:$B$36</c:f>
+              <c:f>'5. Pareto por Facturación'!$B$7:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>[42542-222] CONEXION MSM - 149403A - FE NOD-A536 GR.65-45-12
 CADA KG A $ 3.5</c:v>
@@ -8657,58 +7833,16 @@
                 <c:pt idx="19">
                   <c:v>[40253-302] MSM-J CUBO - 3731 - SAE 1045 + 2 MODELOS + 1 C/A
 CADA KG A $3.50</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>[42555-105] BOCINA MSM - 202410 - FE-BL-A532-IIB
-CADA KG A $ 5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>[42544-302] TAPA MSM - 149403 C - SAE 1045 / EMPLACADO
-CADA KG A $ 4.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>[42544-302] TAPA MSM - 149403 C - SAE 1045
-CADA KG A $ 4.10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>VOLANTE DE MSM - 17608A - SAE 1045
-CADA KG A $ 3.25 </c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>RUEDA SAN MIGUEL S/PLANO 149-338 - VCL-AISI 4140
-CADA KG A $ 3.60</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>[42543-302] BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.60</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>[42543-302] BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>POLEA MSM-106206 - FE NOD-A536 GR.65-45-12
-DUREZA 220-280 BHN
-GRANO FINO
-CADA KG A $ 3.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>[42543-302] BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.50</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>BASE MSM - 149403 B - SAE 1045
-CADA KG A $ 3.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5. Pareto por Facturación'!$G$7:$G$36</c:f>
+              <c:f>'5. Pareto por Facturación'!$G$7:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>8.0100000000000005E-2</c:v>
                 </c:pt>
@@ -8768,44 +7902,13 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.46639999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.47589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.48470000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.49340000000000012</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.502</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.51039999999999996</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.51859999999999995</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.52680000000000005</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.53490000000000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.54289999999999994</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.55090000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-06EA-4446-92C4-B48F3CDE2BAF}"/>
+              <c16:uniqueId val="{00000001-4F37-414A-8ADB-BF39D0075015}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8817,56 +7920,40 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="770991503"/>
-        <c:axId val="770991983"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="50120003"/>
+        <c:axId val="50120004"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="770988623"/>
+        <c:axId val="50120001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Producto</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="771002543"/>
+        <c:crossAx val="50120002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8874,188 +7961,101 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="771002543"/>
+        <c:axId val="50120002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Facturación Total ($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="\$\ #,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="770988623"/>
+        <c:crossAx val="50120001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="770991983"/>
+        <c:axId val="50120004"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% Acumulado</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="770991503"/>
+        <c:crossAx val="50120003"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="770991503"/>
+        <c:axId val="50120003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="770991983"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="50120004"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -9081,61 +8081,20 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Comparativa: Cantidad vs Peso (Top 20 Productos)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -9148,24 +8107,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'6. Peso vs Cantidad'!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cantidad Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Cantidad Total</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="3498DB"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -9329,7 +8276,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7EC5-4253-BC74-68749FDFDC68}"/>
+              <c16:uniqueId val="{00000000-918C-4577-B780-677734D79A4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9341,51 +8288,28 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="771007343"/>
-        <c:axId val="771001103"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="50130001"/>
+        <c:axId val="50130002"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'6. Peso vs Cantidad'!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Peso Total (kg)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Peso Total (kg)</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="E74C3C"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'6. Peso vs Cantidad'!$B$7:$B$26</c:f>
@@ -9545,10 +8469,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7EC5-4253-BC74-68749FDFDC68}"/>
+              <c16:uniqueId val="{00000001-918C-4577-B780-677734D79A4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9560,56 +8483,40 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="771011663"/>
-        <c:axId val="771011183"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="50130003"/>
+        <c:axId val="50130004"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="771007343"/>
+        <c:axId val="50130001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Producto</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="771001103"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="50130002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9617,105 +8524,74 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="771001103"/>
+        <c:axId val="50130002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cantidad Total (unidades)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="771007343"/>
+        <c:crossAx val="50130001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="771011183"/>
+        <c:axId val="50130004"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Peso Total (kg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="771011663"/>
+        <c:crossAx val="50130003"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="771011663"/>
+        <c:axId val="50130003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9724,88 +8600,23 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="771011183"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="50130004"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -9829,135 +8640,50 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relación: Cantidad vs Peso</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'6. Peso vs Cantidad'!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cantidad Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Productos</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="28575">
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'6. Peso vs Cantidad'!$A$7:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>42542-222</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42883-202</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42543-302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42740-400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42412-222</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42657-202</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44471-302</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44471-302</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43870-222</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43870-222</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42542-222</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42542-222</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42542-222</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42680-302</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42544-302</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40253-302</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42988-302</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42382-601</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42454-400</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44535-202</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9B59B6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
             <c:numRef>
               <c:f>'6. Peso vs Cantidad'!$C$7:$C$26</c:f>
               <c:numCache>
@@ -10025,106 +8751,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B875-4748-9F3C-6F54A24EE899}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'6. Peso vs Cantidad'!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Peso Total (kg)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'6. Peso vs Cantidad'!$A$7:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>42542-222</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42883-202</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42543-302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42740-400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42412-222</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42657-202</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44471-302</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44471-302</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43870-222</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43870-222</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42542-222</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42542-222</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42542-222</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42680-302</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42544-302</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40253-302</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42988-302</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42382-601</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42454-400</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44535-202</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'6. Peso vs Cantidad'!$D$7:$D$26</c:f>
               <c:numCache>
@@ -10192,10 +8820,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B875-4748-9F3C-6F54A24EE899}"/>
+              <c16:uniqueId val="{00000000-A74E-48AD-84EC-8EE2117555A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10207,464 +8836,81 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="771009743"/>
-        <c:axId val="771006383"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'6. Peso vs Cantidad'!$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Facturación Total (S/)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'6. Peso vs Cantidad'!$A$7:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>42542-222</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42883-202</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42543-302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42740-400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42412-222</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42657-202</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44471-302</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44471-302</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43870-222</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43870-222</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42542-222</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42542-222</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42542-222</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42680-302</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42544-302</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40253-302</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42988-302</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42382-601</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42454-400</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44535-202</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'6. Peso vs Cantidad'!$E$7:$E$26</c:f>
-              <c:numCache>
-                <c:formatCode>\$\ #,##0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>25200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11680.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12960</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10457.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7153.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6426</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4408.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4008</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3675</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4312</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4020</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4020</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4386</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4132.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3150</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2687.75</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17329</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2635.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B875-4748-9F3C-6F54A24EE899}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="771018383"/>
-        <c:axId val="771000623"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="771009743"/>
+        <c:axId val="50140001"/>
+        <c:axId val="50140002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50140001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cantidad Total (unidades)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="771006383"/>
+        <c:crossAx val="50140002"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="771006383"/>
+        <c:axId val="50140002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="771009743"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="771000623"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="\$\ #,##0.00" sourceLinked="1"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Peso Total (kg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="771018383"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
+        <c:crossAx val="50140001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:catAx>
-        <c:axId val="771018383"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="771000623"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -10805,7 +9051,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-49DE-4C7B-9123-5B5BEB326448}"/>
+              <c16:uniqueId val="{00000000-C37B-4059-B8F2-FC79CEBE3C74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11031,7 +9277,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7D4E-43F3-89C0-F6FDE5C62807}"/>
+              <c16:uniqueId val="{00000000-9FA3-4B7C-80D6-2443C6FE82C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11356,7 +9602,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2763-4C4E-84C7-60A0507AA73F}"/>
+              <c16:uniqueId val="{00000000-93E4-4BAA-8F7C-A39DD9362CF7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11427,7 +9673,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Facturación (S/)</a:t>
+                  <a:t>Facturación ($)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11740,7 +9986,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2603-464B-9EA8-6BF0CE2E8139}"/>
+              <c16:uniqueId val="{00000000-E6CC-4667-8D8A-BBCF63F739AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11868,7 +10114,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Eficiencia: S/ por Kg vs Cantidad de Piezas</a:t>
+              <a:t>Eficiencia: $ por Kg vs Cantidad de Piezas</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12097,7 +10343,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0BB5-4F6D-B635-BD306FA091B3}"/>
+              <c16:uniqueId val="{00000000-D2A1-49C7-BC0E-175817C53072}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12164,7 +10410,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>S/ por Kg (más es mejor)</a:t>
+                  <a:t>$ por Kg (más es mejor)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -12379,7 +10625,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-476A-44B9-8D38-DB5B3DE72BE2}"/>
+              <c16:uniqueId val="{00000000-E929-4B8D-B818-2D9FBD94D465}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12531,7 +10777,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-1DB6-4491-A6E0-A883ABDEF964}"/>
+                <c16:uniqueId val="{00000000-97CB-4DEB-8783-A58A1FDCCFEA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12545,7 +10791,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1DB6-4491-A6E0-A883ABDEF964}"/>
+                <c16:uniqueId val="{00000001-97CB-4DEB-8783-A58A1FDCCFEA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12559,7 +10805,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-1DB6-4491-A6E0-A883ABDEF964}"/>
+                <c16:uniqueId val="{00000002-97CB-4DEB-8783-A58A1FDCCFEA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12573,7 +10819,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1DB6-4491-A6E0-A883ABDEF964}"/>
+                <c16:uniqueId val="{00000003-97CB-4DEB-8783-A58A1FDCCFEA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12639,7 +10885,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1DB6-4491-A6E0-A883ABDEF964}"/>
+              <c16:uniqueId val="{00000004-97CB-4DEB-8783-A58A1FDCCFEA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14921,7 +13167,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AB35-4190-AEA5-BB361E939AB5}"/>
+              <c16:uniqueId val="{00000000-1DA5-476D-A512-98843B9DEF31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14988,7 +13234,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Facturación Total (S/)</a:t>
+                  <a:t>Facturación Total ($)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -15014,2721 +13260,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17778,21 +13309,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2230FFF-6839-4246-9CCD-403361BFC772}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17812,23 +13343,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E5F46CE-75D5-6C8D-93D9-64DC8731EF67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18012,16 +13543,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18048,16 +13579,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18167,22 +13698,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E61415-B003-DA8D-7282-62E75287876B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18209,21 +13740,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D5BBCA-51DD-CB36-AB97-3AFD13C9AC3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18249,22 +13780,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5829909-8292-DE4C-76CB-4F031FE17159}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18731,8 +14262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18753,28 +14284,28 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1739</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>1740</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -19598,14 +15129,12 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="8" width="16.7109375" customWidth="1"/>
+    <col min="1" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -19621,28 +15150,28 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1743</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>1744</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -20466,15 +15995,12 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" customWidth="1"/>
-    <col min="3" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="1" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -20487,29 +16013,22 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1746</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>1747</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -20872,7 +16391,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20883,7 +16402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20904,11 +16425,11 @@
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -20922,11 +16443,11 @@
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -20954,11 +16475,11 @@
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -20986,21 +16507,21 @@
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -22051,7 +17572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22661,7 +18184,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23531,7 +19056,7 @@
       <c r="C64" s="7">
         <v>0</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="3">
         <v>0</v>
       </c>
     </row>
@@ -23545,7 +19070,7 @@
       <c r="C65" s="7">
         <v>-0.91209999999999991</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="3">
         <v>-27351</v>
       </c>
     </row>
@@ -23559,7 +19084,7 @@
       <c r="C66" s="7">
         <v>-0.93769999999999998</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="3">
         <v>-2470.9499999999998</v>
       </c>
     </row>
@@ -23573,7 +19098,7 @@
       <c r="C67" s="7">
         <v>74.7988</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="3">
         <v>12285.7</v>
       </c>
     </row>
@@ -23587,7 +19112,7 @@
       <c r="C68" s="7">
         <v>-3.85E-2</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="3">
         <v>-479.75</v>
       </c>
     </row>
@@ -23601,7 +19126,7 @@
       <c r="C69" s="7">
         <v>0.48249999999999998</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="3">
         <v>5775.52</v>
       </c>
     </row>
@@ -23615,7 +19140,7 @@
       <c r="C70" s="7">
         <v>-7.3899999999999993E-2</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="3">
         <v>-1310.73</v>
       </c>
     </row>
@@ -23629,7 +19154,7 @@
       <c r="C71" s="7">
         <v>0.13389999999999999</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="3">
         <v>2200.0099999999979</v>
       </c>
     </row>
@@ -23643,7 +19168,7 @@
       <c r="C72" s="7">
         <v>-0.82150000000000001</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="3">
         <v>-15307.87</v>
       </c>
     </row>
@@ -23657,7 +19182,7 @@
       <c r="C73" s="7">
         <v>5.3605999999999998</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="3">
         <v>17835.3</v>
       </c>
     </row>
@@ -23671,7 +19196,7 @@
       <c r="C74" s="7">
         <v>-0.89300000000000002</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="3">
         <v>-18898.8</v>
       </c>
     </row>
@@ -23685,7 +19210,7 @@
       <c r="C75" s="7">
         <v>1.8044</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="3">
         <v>4084.47</v>
       </c>
     </row>
@@ -23699,7 +19224,7 @@
       <c r="C76" s="7">
         <v>-0.871</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="3">
         <v>-5529.39</v>
       </c>
     </row>
@@ -23713,7 +19238,7 @@
       <c r="C77" s="7">
         <v>0.13300000000000001</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="3">
         <v>108.89</v>
       </c>
     </row>
@@ -23727,7 +19252,7 @@
       <c r="C78" s="7">
         <v>7.8071999999999999</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="3">
         <v>7242</v>
       </c>
     </row>
@@ -23741,7 +19266,7 @@
       <c r="C79" s="7">
         <v>-0.8831</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="3">
         <v>-7214.72</v>
       </c>
     </row>
@@ -23755,7 +19280,7 @@
       <c r="C80" s="7">
         <v>3.3460999999999999</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="3">
         <v>3195.16</v>
       </c>
     </row>
@@ -23769,7 +19294,7 @@
       <c r="C81" s="7">
         <v>4.6909999999999998</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="3">
         <v>19467.900000000001</v>
       </c>
     </row>
@@ -23783,7 +19308,7 @@
       <c r="C82" s="7">
         <v>-0.71299999999999997</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="3">
         <v>-16840.740000000002</v>
       </c>
     </row>
@@ -23797,7 +19322,7 @@
       <c r="C83" s="7">
         <v>-0.19869999999999999</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="3">
         <v>-1346.5</v>
       </c>
     </row>
@@ -23811,7 +19336,7 @@
       <c r="C84" s="7">
         <v>-0.52359999999999995</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="3">
         <v>-2843.61</v>
       </c>
     </row>
@@ -23825,7 +19350,7 @@
       <c r="C85" s="7">
         <v>1.6960999999999999</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="3">
         <v>4388.0099999999993</v>
       </c>
     </row>
@@ -23839,7 +19364,7 @@
       <c r="C86" s="7">
         <v>-0.42199999999999999</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="3">
         <v>-2943.2999999999988</v>
       </c>
     </row>
@@ -23853,7 +19378,7 @@
       <c r="C87" s="7">
         <v>-0.23180000000000001</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="3">
         <v>-934.5</v>
       </c>
     </row>
@@ -23867,7 +19392,7 @@
       <c r="C88" s="7">
         <v>0.96779999999999999</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="3">
         <v>2997.5</v>
       </c>
     </row>
@@ -23881,7 +19406,7 @@
       <c r="C89" s="7">
         <v>1.0122</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="3">
         <v>6169.05</v>
       </c>
     </row>
@@ -23895,7 +19420,7 @@
       <c r="C90" s="7">
         <v>-5.9299999999999999E-2</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="3">
         <v>-727.22999999999956</v>
       </c>
     </row>
@@ -23909,7 +19434,7 @@
       <c r="C91" s="7">
         <v>-0.64980000000000004</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="3">
         <v>-7497.0000000000009</v>
       </c>
     </row>
@@ -23923,7 +19448,7 @@
       <c r="C92" s="7">
         <v>6.5065999999999997</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="3">
         <v>26284.09</v>
       </c>
     </row>
@@ -23937,7 +19462,7 @@
       <c r="C93" s="7">
         <v>-0.90739999999999998</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="3">
         <v>-27515.46</v>
       </c>
     </row>
@@ -23951,7 +19476,7 @@
       <c r="C94" s="7">
         <v>1.4041999999999999</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="3">
         <v>3943.25</v>
       </c>
     </row>
@@ -23965,7 +19490,7 @@
       <c r="C95" s="7">
         <v>0.63600000000000001</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="3">
         <v>4294</v>
       </c>
     </row>
@@ -23979,7 +19504,7 @@
       <c r="C96" s="7">
         <v>-0.40189999999999998</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="3">
         <v>-4439.5249999999996</v>
       </c>
     </row>
@@ -23993,7 +19518,7 @@
       <c r="C97" s="7">
         <v>-0.21179999999999999</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="3">
         <v>-1398.925</v>
       </c>
     </row>
@@ -24007,7 +19532,7 @@
       <c r="C98" s="7">
         <v>0.2661</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="3">
         <v>1385.75</v>
       </c>
     </row>
@@ -24021,7 +19546,7 @@
       <c r="C99" s="7">
         <v>-0.89129999999999998</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="3">
         <v>-5876.1</v>
       </c>
     </row>
@@ -44032,13 +39557,20 @@
   <dimension ref="A1:K367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="9" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="50.7109375" customWidth="1"/>
   </cols>
@@ -44059,34 +39591,34 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1693</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>1694</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -56798,28 +52330,28 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1721</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>1722</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -66289,7 +61821,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66310,28 +61842,28 @@
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1735</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>1736</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
